--- a/excel-template-generator.jar仕様書.xlsx
+++ b/excel-template-generator.jar仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\利明\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2023-12\workspace\excel-template-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>テンプレートExcelファイル(template.xlsx)を基にアウトプットExcelファイル(output.xlsx)に書き込みをする</t>
     <rPh sb="31" eb="32">
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>system.iniファイルにjar, templateファイル, outputファイルの</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスを記述し、取得する</t>
     <rPh sb="3" eb="5">
       <t>キジュツ</t>
@@ -90,42 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>modeの値を取得</t>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>json設定ファイルを選択</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積の場合と請求の場合の</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今回keyは使用していないが、詳細をわかりやすくするために"見積書_タイトル"のように記述している</t>
     <rPh sb="0" eb="2">
       <t>コンカイ</t>
@@ -240,6 +200,274 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modeを受け取る</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSONファイルを選択する</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け取ったmodeによって</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計行の書きこみに必要な情報</t>
+    <rPh sb="0" eb="3">
+      <t>ゴウケイギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準出力でJSONデータが送られる</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジュンシュツリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例　：　{{"items": [{"column1": "item"}], "mode": "mode0","clientName": "〇〇商事"}}</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Keyに対応するValueを記述する</t>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"Key", "Value "}←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"mode" = "mode0"とする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※このJSONファイルは、受け渡されたデータ以外で書き込む際に使用する</t>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>system.iniファイル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にjar, templateファイル, outputファイルの</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsonObject("Key")このKeyに対応したセル位置を指定する</t>
+    <rPh sb="23" eb="25">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的にグリッドビューの表は変わらないものとするが、</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：1ページ目の開始行が17行目なら"page1StartRow"：17</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイシギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     1ページ目の要素数が22項目なら"page1Items"："22"等</t>
+    <rPh sb="9" eb="10">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ExcelのA1からM列まで</t>
+    <rPh sb="12" eb="13">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・行はprintEndRowで指定している</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>printEndRow = pageStartRow + pageItems</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もし変更がある場合は、ページ毎の開始行と要素数を変更する</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ヨウソスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送るmodeが一つの場合は</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modeは必ずjsonObject格納</t>
+    <rPh sb="5" eb="6">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ここで印刷範囲を設定している。</t>
+    <rPh sb="4" eb="8">
+      <t>インサツハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -248,7 +476,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +516,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +582,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -345,33 +614,70 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPr id="18" name="図 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="23867" t="30307" r="51910" b="22465"/>
+        <a:srcRect l="31865" t="10263" r="54238" b="34227"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="9763126"/>
-          <a:ext cx="5838825" cy="3562350"/>
+          <a:off x="1162050" y="21907500"/>
+          <a:ext cx="2276475" cy="5667375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="32272" t="38345" r="18768" b="25177"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323849" y="9191625"/>
+          <a:ext cx="8020051" cy="3724276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -401,7 +707,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect l="4341" t="29479" r="35073" b="52283"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -420,15 +726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -437,7 +743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="561975" y="19764376"/>
+          <a:off x="609600" y="21126451"/>
           <a:ext cx="3162300" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -480,16 +786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28573</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314323</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -498,8 +804,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829173" y="9944099"/>
-          <a:ext cx="1885951" cy="371475"/>
+          <a:off x="5800723" y="9277349"/>
+          <a:ext cx="2847977" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -690,7 +996,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect r="48915" b="56342"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -781,7 +1087,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect l="4581" t="30561" r="74923" b="67358"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -801,13 +1107,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -818,7 +1124,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect l="4342" t="41721" r="45442" b="36877"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -834,55 +1140,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="4221" t="33810" r="69917" b="58778"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="342900" y="8191500"/>
-          <a:ext cx="4086225" cy="847725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -891,8 +1160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6229350" y="12849224"/>
-          <a:ext cx="1114424" cy="371476"/>
+          <a:off x="6267450" y="12344399"/>
+          <a:ext cx="2381250" cy="428626"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -932,13 +1201,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -949,7 +1218,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:srcRect l="23166" t="9388" r="44442" b="71849"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -969,13 +1238,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1026,55 +1295,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect l="23274" t="13261" r="63251" b="16908"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="542925" y="20478750"/>
-          <a:ext cx="3248026" cy="5267326"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1083,8 +1315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2657475" y="20602574"/>
-          <a:ext cx="1971675" cy="352425"/>
+          <a:off x="3476625" y="21974174"/>
+          <a:ext cx="1162050" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1124,13 +1356,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>135256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1182,33 +1414,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="稲妻 31"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="17430750"/>
-          <a:ext cx="1600200" cy="3086100"/>
-        </a:xfrm>
-        <a:prstGeom prst="lightningBolt">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
+          <a:off x="1428751" y="24050624"/>
+          <a:ext cx="1971674" cy="1276351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1239,34 +1474,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvPr id="34" name="右矢印 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104901" y="22669501"/>
-          <a:ext cx="2647950" cy="1314450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
+          <a:off x="3438524" y="23079076"/>
+          <a:ext cx="1228725" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1299,78 +1536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="右矢印 33"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3419474" y="23060026"/>
-          <a:ext cx="1228725" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1379,7 +1554,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="24012525"/>
+          <a:off x="1438275" y="25374600"/>
           <a:ext cx="1524000" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1391,63 +1566,6 @@
             <a:srgbClr val="FFFF00"/>
           </a:solidFill>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="右矢印 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895600" y="24641175"/>
-          <a:ext cx="1666875" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1554,6 +1672,467 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463452</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>62317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174585</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>50437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="下矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19525632">
+          <a:off x="3892452" y="18236017"/>
+          <a:ext cx="396933" cy="3874320"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="26679525"/>
+          <a:ext cx="1514475" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="下矢印 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3571875" y="24765000"/>
+          <a:ext cx="457200" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect l="4461" t="31228" r="69556" b="60778"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="8553450"/>
+          <a:ext cx="4105275" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="右矢印 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="24669750"/>
+          <a:ext cx="1666875" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="円/楕円 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="27879675"/>
+          <a:ext cx="2285999" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>印刷範囲の設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect l="31690" t="57003" r="51331" b="34227"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315199" y="28508324"/>
+          <a:ext cx="2781301" cy="895351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="右矢印 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="28755975"/>
+          <a:ext cx="685800" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect l="31515" t="62788" r="29061" b="30588"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28603575"/>
+          <a:ext cx="6457950" cy="676276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1822,17 +2401,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="O155" sqref="O155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -1841,98 +2420,184 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.15">
-      <c r="H9" s="1" t="s">
-        <v>1</v>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="H10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+    <row r="51" spans="7:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="N51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="7:14" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="N52" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="7:14" ht="21" x14ac:dyDescent="0.15">
+      <c r="N53" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="7:14" ht="21" x14ac:dyDescent="0.15">
+      <c r="N54" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="7:14" ht="21" x14ac:dyDescent="0.15">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="7:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="14:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="N67" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="14:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="N68" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="7:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="K49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="7:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="7:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="7:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="L64" s="1" t="s">
+    <row r="84" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="21" x14ac:dyDescent="0.15">
-      <c r="L65" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
+    <row r="108" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="H111" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A81" s="1" t="s">
+    <row r="112" spans="8:8" ht="21" x14ac:dyDescent="0.15">
+      <c r="H112" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="H125" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="H126" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="H127" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H129" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
+    <row r="131" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
+    <row r="132" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="H132" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
-    <row r="106" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="H108" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="H122" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
-    <row r="129" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="H129" s="1" t="s">
+    <row r="136" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="H136" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="8:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="K151" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="K152" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>